--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.583397708210771</v>
+        <v>0.03046233333333333</v>
       </c>
       <c r="H2">
-        <v>0.583397708210771</v>
+        <v>0.091387</v>
       </c>
       <c r="I2">
-        <v>0.3122201445480294</v>
+        <v>0.01378316480238178</v>
       </c>
       <c r="J2">
-        <v>0.3122201445480294</v>
+        <v>0.01378316480238178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.4264265091718</v>
+        <v>88.37814633333333</v>
       </c>
       <c r="N2">
-        <v>48.4264265091718</v>
+        <v>265.134439</v>
       </c>
       <c r="O2">
-        <v>0.5838918890007061</v>
+        <v>0.7138016014383547</v>
       </c>
       <c r="P2">
-        <v>0.5838918890007061</v>
+        <v>0.7138016014383547</v>
       </c>
       <c r="Q2">
-        <v>28.25186624228815</v>
+        <v>2.692204552988111</v>
       </c>
       <c r="R2">
-        <v>28.25186624228815</v>
+        <v>24.229840976893</v>
       </c>
       <c r="S2">
-        <v>0.1823028099842224</v>
+        <v>0.009838445108828878</v>
       </c>
       <c r="T2">
-        <v>0.1823028099842224</v>
+        <v>0.009838445108828876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.583397708210771</v>
+        <v>0.03046233333333333</v>
       </c>
       <c r="H3">
-        <v>0.583397708210771</v>
+        <v>0.091387</v>
       </c>
       <c r="I3">
-        <v>0.3122201445480294</v>
+        <v>0.01378316480238178</v>
       </c>
       <c r="J3">
-        <v>0.3122201445480294</v>
+        <v>0.01378316480238178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.70222155919539</v>
+        <v>8.866675333333333</v>
       </c>
       <c r="N3">
-        <v>8.70222155919539</v>
+        <v>26.600026</v>
       </c>
       <c r="O3">
-        <v>0.104925284622001</v>
+        <v>0.07161325864989523</v>
       </c>
       <c r="P3">
-        <v>0.104925284622001</v>
+        <v>0.07161325864989525</v>
       </c>
       <c r="Q3">
-        <v>5.076856113976953</v>
+        <v>0.2700996195624444</v>
       </c>
       <c r="R3">
-        <v>5.076856113976953</v>
+        <v>2.430896576062</v>
       </c>
       <c r="S3">
-        <v>0.03275978753142429</v>
+        <v>0.0009870573460070986</v>
       </c>
       <c r="T3">
-        <v>0.03275978753142429</v>
+        <v>0.0009870573460070986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.583397708210771</v>
+        <v>0.03046233333333333</v>
       </c>
       <c r="H4">
-        <v>0.583397708210771</v>
+        <v>0.091387</v>
       </c>
       <c r="I4">
-        <v>0.3122201445480294</v>
+        <v>0.01378316480238178</v>
       </c>
       <c r="J4">
-        <v>0.3122201445480294</v>
+        <v>0.01378316480238178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.808668618889</v>
+        <v>26.56849866666667</v>
       </c>
       <c r="N4">
-        <v>25.808668618889</v>
+        <v>79.705496</v>
       </c>
       <c r="O4">
-        <v>0.3111828263772929</v>
+        <v>0.2145851399117501</v>
       </c>
       <c r="P4">
-        <v>0.3111828263772929</v>
+        <v>0.2145851399117501</v>
       </c>
       <c r="Q4">
-        <v>15.05671812423109</v>
+        <v>0.8093384625502221</v>
       </c>
       <c r="R4">
-        <v>15.05671812423109</v>
+        <v>7.284046162951999</v>
       </c>
       <c r="S4">
-        <v>0.09715754703238273</v>
+        <v>0.002957662347545804</v>
       </c>
       <c r="T4">
-        <v>0.09715754703238273</v>
+        <v>0.002957662347545803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.28514831099404</v>
+        <v>0.6579096666666667</v>
       </c>
       <c r="H5">
-        <v>1.28514831099404</v>
+        <v>1.973729</v>
       </c>
       <c r="I5">
-        <v>0.6877798554519706</v>
+        <v>0.2976816405204262</v>
       </c>
       <c r="J5">
-        <v>0.6877798554519706</v>
+        <v>0.2976816405204262</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.4264265091718</v>
+        <v>88.37814633333333</v>
       </c>
       <c r="N5">
-        <v>48.4264265091718</v>
+        <v>265.134439</v>
       </c>
       <c r="O5">
-        <v>0.5838918890007061</v>
+        <v>0.7138016014383547</v>
       </c>
       <c r="P5">
-        <v>0.5838918890007061</v>
+        <v>0.7138016014383547</v>
       </c>
       <c r="Q5">
-        <v>62.23514023573914</v>
+        <v>58.14483679478123</v>
       </c>
       <c r="R5">
-        <v>62.23514023573914</v>
+        <v>523.303531153031</v>
       </c>
       <c r="S5">
-        <v>0.4015890790164837</v>
+        <v>0.2124856317222769</v>
       </c>
       <c r="T5">
-        <v>0.4015890790164837</v>
+        <v>0.2124856317222768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.28514831099404</v>
+        <v>0.6579096666666667</v>
       </c>
       <c r="H6">
-        <v>1.28514831099404</v>
+        <v>1.973729</v>
       </c>
       <c r="I6">
-        <v>0.6877798554519706</v>
+        <v>0.2976816405204262</v>
       </c>
       <c r="J6">
-        <v>0.6877798554519706</v>
+        <v>0.2976816405204262</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.70222155919539</v>
+        <v>8.866675333333333</v>
       </c>
       <c r="N6">
-        <v>8.70222155919539</v>
+        <v>26.600026</v>
       </c>
       <c r="O6">
-        <v>0.104925284622001</v>
+        <v>0.07161325864989523</v>
       </c>
       <c r="P6">
-        <v>0.104925284622001</v>
+        <v>0.07161325864989525</v>
       </c>
       <c r="Q6">
-        <v>11.18364533869588</v>
+        <v>5.833471412994889</v>
       </c>
       <c r="R6">
-        <v>11.18364533869588</v>
+        <v>52.501242716954</v>
       </c>
       <c r="S6">
-        <v>0.07216549709057675</v>
+        <v>0.02131795231791442</v>
       </c>
       <c r="T6">
-        <v>0.07216549709057675</v>
+        <v>0.02131795231791442</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6579096666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.973729</v>
+      </c>
+      <c r="I7">
+        <v>0.2976816405204262</v>
+      </c>
+      <c r="J7">
+        <v>0.2976816405204262</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>26.56849866666667</v>
+      </c>
+      <c r="N7">
+        <v>79.705496</v>
+      </c>
+      <c r="O7">
+        <v>0.2145851399117501</v>
+      </c>
+      <c r="P7">
+        <v>0.2145851399117501</v>
+      </c>
+      <c r="Q7">
+        <v>17.47967210162044</v>
+      </c>
+      <c r="R7">
+        <v>157.317048914584</v>
+      </c>
+      <c r="S7">
+        <v>0.06387805648023497</v>
+      </c>
+      <c r="T7">
+        <v>0.06387805648023495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.521739666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.565219</v>
+      </c>
+      <c r="I8">
+        <v>0.688535194677192</v>
+      </c>
+      <c r="J8">
+        <v>0.6885351946771919</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>88.37814633333333</v>
+      </c>
+      <c r="N8">
+        <v>265.134439</v>
+      </c>
+      <c r="O8">
+        <v>0.7138016014383547</v>
+      </c>
+      <c r="P8">
+        <v>0.7138016014383547</v>
+      </c>
+      <c r="Q8">
+        <v>134.4885309419046</v>
+      </c>
+      <c r="R8">
+        <v>1210.396778477141</v>
+      </c>
+      <c r="S8">
+        <v>0.491477524607249</v>
+      </c>
+      <c r="T8">
+        <v>0.4914775246072489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.28514831099404</v>
-      </c>
-      <c r="H7">
-        <v>1.28514831099404</v>
-      </c>
-      <c r="I7">
-        <v>0.6877798554519706</v>
-      </c>
-      <c r="J7">
-        <v>0.6877798554519706</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>25.808668618889</v>
-      </c>
-      <c r="N7">
-        <v>25.808668618889</v>
-      </c>
-      <c r="O7">
-        <v>0.3111828263772929</v>
-      </c>
-      <c r="P7">
-        <v>0.3111828263772929</v>
-      </c>
-      <c r="Q7">
-        <v>33.16796688457008</v>
-      </c>
-      <c r="R7">
-        <v>33.16796688457008</v>
-      </c>
-      <c r="S7">
-        <v>0.2140252793449102</v>
-      </c>
-      <c r="T7">
-        <v>0.2140252793449102</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.521739666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.565219</v>
+      </c>
+      <c r="I9">
+        <v>0.688535194677192</v>
+      </c>
+      <c r="J9">
+        <v>0.6885351946771919</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.866675333333333</v>
+      </c>
+      <c r="N9">
+        <v>26.600026</v>
+      </c>
+      <c r="O9">
+        <v>0.07161325864989523</v>
+      </c>
+      <c r="P9">
+        <v>0.07161325864989525</v>
+      </c>
+      <c r="Q9">
+        <v>13.49277156618822</v>
+      </c>
+      <c r="R9">
+        <v>121.434944095694</v>
+      </c>
+      <c r="S9">
+        <v>0.04930824898597373</v>
+      </c>
+      <c r="T9">
+        <v>0.04930824898597373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.521739666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.565219</v>
+      </c>
+      <c r="I10">
+        <v>0.688535194677192</v>
+      </c>
+      <c r="J10">
+        <v>0.6885351946771919</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>26.56849866666667</v>
+      </c>
+      <c r="N10">
+        <v>79.705496</v>
+      </c>
+      <c r="O10">
+        <v>0.2145851399117501</v>
+      </c>
+      <c r="P10">
+        <v>0.2145851399117501</v>
+      </c>
+      <c r="Q10">
+        <v>40.43033830484711</v>
+      </c>
+      <c r="R10">
+        <v>363.873044743624</v>
+      </c>
+      <c r="S10">
+        <v>0.1477494210839694</v>
+      </c>
+      <c r="T10">
+        <v>0.1477494210839693</v>
       </c>
     </row>
   </sheetData>
